--- a/data/forsk_termer.xlsx
+++ b/data/forsk_termer.xlsx
@@ -15,29 +15,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="281">
   <si>
     <t>Forskningsbiblioteken</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>VariableType</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
     <t>forsk1</t>
   </si>
   <si>
     <t>Organisationsnamn</t>
   </si>
   <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
     <t>forsk2</t>
   </si>
   <si>
     <t>Respondent-ID i gammal databas</t>
   </si>
   <si>
+    <t>xsd:integer</t>
+  </si>
+  <si>
     <t>forsk3</t>
   </si>
   <si>
     <t>Årsverken Bibliotekarier och dokumentalister; Kvinnor</t>
   </si>
   <si>
+    <t>xsd:decimal</t>
+  </si>
+  <si>
     <t>forsk4</t>
   </si>
   <si>
@@ -779,7 +803,7 @@
     <t>forsk127</t>
   </si>
   <si>
-    <t>Antal biblioteksanställda som arbetade med formell lärarledd undervisning </t>
+    <t>Antal biblioteksanställda som arbetade med formell lärarledd undervisning</t>
   </si>
   <si>
     <t>forsk128</t>
@@ -791,7 +815,7 @@
     <t>forsk129</t>
   </si>
   <si>
-    <t>Antal virtuella besök av IP-besökare på digitala pedagogiska resurser </t>
+    <t>Antal virtuella besök av IP-besökare på digitala pedagogiska resurser</t>
   </si>
   <si>
     <t>forsk130</t>
@@ -815,7 +839,7 @@
     <t>forsk133</t>
   </si>
   <si>
-    <t>Antal poster som indexerats av biblioteket i databaser och andra informationstjänster. </t>
+    <t>Antal poster som indexerats av biblioteket i databaser och andra informationstjänster.</t>
   </si>
   <si>
     <t>forsk134</t>
@@ -844,11 +868,12 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -880,6 +905,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -890,14 +922,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD7E4BD"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFD7E4BD"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -935,8 +967,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -944,15 +984,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,1110 +1089,1911 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E138" activeCellId="0" sqref="E138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="88.2142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="88.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
+      <c r="A21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
+      <c r="A22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
+      <c r="A23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
+      <c r="A24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
+      <c r="A25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>52</v>
+      <c r="A27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>54</v>
+      <c r="A28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>56</v>
+      <c r="A29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>58</v>
+      <c r="A30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>60</v>
+      <c r="A31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>62</v>
+      <c r="A32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>64</v>
+      <c r="A33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
+      <c r="A34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>68</v>
+      <c r="A35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>70</v>
+      <c r="A36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>72</v>
+      <c r="A37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>74</v>
+      <c r="A38" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>76</v>
+      <c r="A39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
+      <c r="A40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>80</v>
+      <c r="A41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>82</v>
+      <c r="A42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>84</v>
+      <c r="A43" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>86</v>
+      <c r="A44" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>88</v>
+      <c r="A45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>90</v>
+      <c r="A46" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>92</v>
+      <c r="A47" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>94</v>
+      <c r="A48" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>96</v>
+      <c r="A49" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>98</v>
+      <c r="A50" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>100</v>
+      <c r="A51" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>102</v>
+      <c r="A52" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>104</v>
+      <c r="A53" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>106</v>
+      <c r="A54" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>108</v>
+      <c r="A55" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>110</v>
+      <c r="A56" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>112</v>
+      <c r="A57" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>114</v>
+      <c r="A58" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>116</v>
+      <c r="A59" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>118</v>
+      <c r="A60" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>120</v>
+      <c r="A61" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>122</v>
+      <c r="A62" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>124</v>
+      <c r="A63" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>126</v>
+      <c r="A64" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>128</v>
+      <c r="A65" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>130</v>
+      <c r="A66" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>132</v>
+      <c r="A67" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>134</v>
+      <c r="A68" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>136</v>
+      <c r="A69" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>138</v>
+      <c r="A70" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>140</v>
+      <c r="A71" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>142</v>
+      <c r="A72" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>144</v>
+      <c r="A73" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>146</v>
+      <c r="A74" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>148</v>
+      <c r="A75" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>150</v>
+      <c r="A76" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>152</v>
+      <c r="A77" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>154</v>
+      <c r="A78" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>156</v>
+      <c r="A79" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>158</v>
+      <c r="A80" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>160</v>
+      <c r="A81" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>162</v>
+      <c r="A82" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>164</v>
+      <c r="A83" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>166</v>
+      <c r="A84" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>168</v>
+      <c r="A85" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>170</v>
+      <c r="A86" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>172</v>
+      <c r="A87" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>174</v>
+      <c r="A88" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>176</v>
+      <c r="A89" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>178</v>
+      <c r="A90" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>180</v>
+      <c r="A91" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>182</v>
+      <c r="A92" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>184</v>
+      <c r="A93" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>186</v>
+      <c r="A94" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>188</v>
+      <c r="A95" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>190</v>
+      <c r="A96" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>192</v>
+      <c r="A97" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>194</v>
+      <c r="A98" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>196</v>
+      <c r="A99" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>198</v>
+      <c r="A100" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>200</v>
+      <c r="A101" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>202</v>
+      <c r="A102" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>204</v>
+      <c r="A103" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>206</v>
+      <c r="A104" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>208</v>
+      <c r="A105" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>210</v>
+      <c r="A106" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>212</v>
+      <c r="A107" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>214</v>
+      <c r="A108" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>216</v>
+      <c r="A109" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>218</v>
+      <c r="A110" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>220</v>
+      <c r="A111" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>222</v>
+      <c r="A112" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>224</v>
+      <c r="A113" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>226</v>
+      <c r="A114" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>228</v>
+      <c r="A115" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>230</v>
+      <c r="A116" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>232</v>
+      <c r="A117" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>234</v>
+      <c r="A118" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>236</v>
+      <c r="A119" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>238</v>
+      <c r="A120" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>240</v>
+      <c r="A121" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>242</v>
+      <c r="A122" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>244</v>
+      <c r="A123" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>246</v>
+      <c r="A124" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>248</v>
+      <c r="A125" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>250</v>
+      <c r="A126" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>252</v>
+      <c r="A127" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>254</v>
+      <c r="A128" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>256</v>
+      <c r="A129" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>258</v>
+      <c r="A130" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>260</v>
+      <c r="A131" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>262</v>
+      <c r="A132" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>264</v>
+      <c r="A133" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>266</v>
+      <c r="A134" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>268</v>
+      <c r="A135" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>270</v>
+      <c r="A136" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>272</v>
+      <c r="A137" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/forsk_termer.xlsx
+++ b/data/forsk_termer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="281">
   <si>
     <t>Forskningsbiblioteken</t>
   </si>
@@ -38,25 +38,25 @@
     <t>Organisationsnamn</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>forsk2</t>
+  </si>
+  <si>
+    <t>Respondent-ID i gammal databas</t>
+  </si>
+  <si>
+    <t>xsd:integer</t>
+  </si>
+  <si>
+    <t>forsk3</t>
+  </si>
+  <si>
+    <t>Årsverken Bibliotekarier och dokumentalister; Kvinnor</t>
+  </si>
+  <si>
     <t>public</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
-  </si>
-  <si>
-    <t>forsk2</t>
-  </si>
-  <si>
-    <t>Respondent-ID i gammal databas</t>
-  </si>
-  <si>
-    <t>xsd:integer</t>
-  </si>
-  <si>
-    <t>forsk3</t>
-  </si>
-  <si>
-    <t>Årsverken Bibliotekarier och dokumentalister; Kvinnor</t>
   </si>
   <si>
     <t>xsd:decimal</t>
@@ -976,10 +976,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1006,6 +1002,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1091,1909 +1091,1913 @@
   </sheetPr>
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E138" activeCellId="0" sqref="E138"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6785714285714"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="88.2142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.2602040816327"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="4" t="s">
+    <row r="1" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D3" s="0"/>
       <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
+      <c r="D10" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
+      <c r="D12" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
+      <c r="D16" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
+      <c r="D17" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
+      <c r="D18" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
+      <c r="D19" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D20" s="0"/>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
+      <c r="D21" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
+      <c r="D22" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
+      <c r="D23" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
+      <c r="D24" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
+      <c r="D25" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>7</v>
+      <c r="D26" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
+      <c r="D27" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
+      <c r="D28" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
+      <c r="D29" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>7</v>
+      <c r="D30" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
+      <c r="D31" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>7</v>
+      <c r="D32" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="D33" s="0"/>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
+      <c r="D34" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>7</v>
+      <c r="D35" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>7</v>
+      <c r="D36" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>7</v>
+      <c r="D37" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>7</v>
+      <c r="D38" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>7</v>
+      <c r="D39" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
+      <c r="D40" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>7</v>
+      <c r="D41" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>7</v>
+      <c r="D42" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>7</v>
+      <c r="D43" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>7</v>
+      <c r="D44" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>7</v>
+      <c r="D45" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>7</v>
+      <c r="D46" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>7</v>
+      <c r="D47" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>7</v>
+      <c r="D48" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>7</v>
+      <c r="D49" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>7</v>
+      <c r="D50" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
+      <c r="D51" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>7</v>
+      <c r="D52" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>7</v>
+      <c r="D53" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>7</v>
+      <c r="D54" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>7</v>
+      <c r="D55" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>7</v>
+      <c r="D56" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>7</v>
+      <c r="D57" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>7</v>
+      <c r="D58" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>7</v>
+      <c r="D59" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>7</v>
+      <c r="D60" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>7</v>
+      <c r="D61" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>7</v>
+      <c r="D62" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>7</v>
+      <c r="D63" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>7</v>
+      <c r="D64" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>7</v>
+      <c r="D65" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>7</v>
+      <c r="D66" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>7</v>
+      <c r="D67" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>7</v>
+      <c r="D68" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>7</v>
+      <c r="D69" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>7</v>
+      <c r="D70" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>7</v>
+      <c r="D71" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>7</v>
+      <c r="D72" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>7</v>
+      <c r="D73" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>7</v>
+      <c r="D74" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>7</v>
+      <c r="D75" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>7</v>
+      <c r="D76" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="D77" s="0"/>
       <c r="E77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="D78" s="0"/>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>7</v>
+      <c r="D79" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>7</v>
+      <c r="D80" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>7</v>
+      <c r="D81" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>7</v>
+      <c r="D82" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>7</v>
+      <c r="D83" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>7</v>
+      <c r="D84" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>7</v>
+      <c r="D85" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>177</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>7</v>
+      <c r="D86" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>7</v>
+      <c r="D87" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>7</v>
+      <c r="D88" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>7</v>
+      <c r="D89" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>7</v>
+      <c r="D90" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>7</v>
+      <c r="D91" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="7" t="s">
         <v>189</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>7</v>
+      <c r="D92" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>7</v>
+      <c r="D93" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>7</v>
+      <c r="D94" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>7</v>
+      <c r="D95" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>7</v>
+      <c r="D96" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>7</v>
+      <c r="D97" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>201</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>7</v>
+      <c r="D98" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>203</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>7</v>
+      <c r="D99" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>205</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>7</v>
+      <c r="D100" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>7</v>
+      <c r="D101" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>209</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>7</v>
+      <c r="D102" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>7</v>
+      <c r="D103" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>213</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>7</v>
+      <c r="D104" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>7</v>
+      <c r="D105" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>217</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>7</v>
+      <c r="D106" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>219</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>7</v>
+      <c r="D107" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>221</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>7</v>
+      <c r="D108" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>223</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>7</v>
+      <c r="D109" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>7</v>
+      <c r="D110" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="7" t="s">
         <v>227</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>7</v>
+      <c r="D111" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>7</v>
+      <c r="D112" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>7</v>
+      <c r="D113" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>7</v>
+      <c r="D114" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>7</v>
+      <c r="D115" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>7</v>
+      <c r="D116" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>7</v>
+      <c r="D117" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>7</v>
+      <c r="D118" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>7</v>
+      <c r="D119" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="7" t="s">
         <v>245</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="D120" s="0"/>
       <c r="E120" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>247</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>7</v>
+      <c r="D121" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>249</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>7</v>
+      <c r="D122" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>7</v>
+      <c r="D123" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>7</v>
+      <c r="D124" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="D125" s="0"/>
       <c r="E125" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="7" t="s">
         <v>257</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>7</v>
+      <c r="D126" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>7</v>
+      <c r="D127" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="7" t="s">
         <v>261</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>7</v>
+      <c r="D128" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="7" t="s">
         <v>263</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>7</v>
+      <c r="D129" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>7</v>
+      <c r="D130" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>7</v>
+      <c r="D131" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>7</v>
+      <c r="D132" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="7" t="s">
         <v>271</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>7</v>
+      <c r="D133" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>7</v>
+      <c r="D134" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="7" t="s">
         <v>275</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>276</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="7" t="s">
         <v>277</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>278</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="7" t="s">
         <v>279</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/forsk_termer.xlsx
+++ b/data/forsk_termer.xlsx
@@ -110,7 +110,7 @@
     <t>Forsk8</t>
   </si>
   <si>
-    <t>Totalt antal årsverken. Antalet årverken delas upp på kvinnor respektive män indelat på fyra olika kategorierer av tjänster. Årsverke motsvarar antal heltidsanställda (till exempel motsvarar 2 personer som arbetar halvtid 1 årsverke eller två personer som arbetar 75 procent av heltidstjänst motsvarar 1,5 årsverke). En heltidsanställning motsvaras vanligen av att en person arbetar 40 timmar per vecka, vilket motsvaras av 2080 timmar per år (från 2080 borträknas semester och ledigheter i samband med ”röda dagar”, återstående är då 1700-1800 timmar vid heltidsanställning). Redovisningen av årsverken avser den personal som förutsatts enligt budgeten för forskningsbiblioteksverksamheten. Uppgift om antal årsverken kan anges med flera decimaler. Respektive anställd räknas till den personalkategori som de är anställda som, inte nödvändigtvis utbildade till. </t>
+    <t>Totalt antal årsverken. Antalet årverken delas upp på kvinnor respektive män indelat på fyra olika kategorierer av tjänster. Årsverke motsvarar antal heltidsanställda (till exempel motsvarar 2 personer som arbetar halvtid 1 årsverke eller två personer som arbetar 75 procent av heltidstjänst motsvarar 1,5 årsverke). En heltidsanställning motsvaras vanligen av att en person arbetar 40 timmar per vecka, vilket motsvaras av 2080 timmar per år (från 2080 borträknas semester och ledigheter i samband med ”röda dagar”, återstående är då 1700-1800 timmar vid heltidsanställning). Redovisningen av årsverken avser den personal som förutsatts enligt budgeten för forskningsbiblioteksverksamheten. Uppgift om antal årsverken kan anges med flera decimaler. Respektive anställd räknas till den personalkategori som de är anställda som, inte nödvändigtvis utbildade till.</t>
   </si>
   <si>
     <t>Personal</t>
@@ -125,8 +125,7 @@
     <t>Forsk9</t>
   </si>
   <si>
-    <t>Årsverken kvinnliga bibliotekarier och dokumentalister. Personal med utbildning i biblioteks- och informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.
- </t>
+    <t>Årsverken kvinnliga bibliotekarier och dokumentalister. Personal med utbildning i biblioteks- och informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.</t>
   </si>
   <si>
     <t>Antal årsverken kvinnor bibliotekarier</t>
@@ -135,8 +134,7 @@
     <t>Forsk10</t>
   </si>
   <si>
-    <t>Årsverken manliga bibliotekarier och dokumentalister. Personal med utbildning i biblioteks- och informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.
- </t>
+    <t>Årsverken manliga bibliotekarier och dokumentalister. Personal med utbildning i biblioteks- och informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.</t>
   </si>
   <si>
     <t>Antal årsverken män bibliotekarier</t>
@@ -145,8 +143,7 @@
     <t>Forsk11</t>
   </si>
   <si>
-    <t>Årsverken kvinnliga biblioteksassistenter. Personal med biblioteksassistentutbildning och som har en tjänst som kräver denna utbildning. Utbildningen kan antingen vara formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.
- </t>
+    <t>Årsverken kvinnliga biblioteksassistenter. Personal med biblioteksassistentutbildning och som har en tjänst som kräver denna utbildning. Utbildningen kan antingen vara formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.</t>
   </si>
   <si>
     <t>Antal årsverken kvinnor biblioteksassistent</t>
@@ -155,8 +152,7 @@
     <t>Forsk12</t>
   </si>
   <si>
-    <t>Årverken manliga biblioteksassistenter. Personal med biblioteksassistentutbildning och som har en tjänst som kräver denna utbildning. Utbildningen kan antingen vara formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.
- </t>
+    <t>Årverken manliga biblioteksassistenter. Personal med biblioteksassistentutbildning och som har en tjänst som kräver denna utbildning. Utbildningen kan antingen vara formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.</t>
   </si>
   <si>
     <t>Antal årsverken män biblioteksassistent</t>
@@ -228,8 +224,7 @@
     <t>Forsk20</t>
   </si>
   <si>
-    <t>Antal anställda kvinnliga bibliotekarier och dokumentalister. Personal med utbildning i biblioteks- och informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.
- </t>
+    <t>Antal anställda kvinnliga bibliotekarier och dokumentalister. Personal med utbildning i biblioteks- och informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.</t>
   </si>
   <si>
     <t>Antal kvinnor bibliotekarie</t>
@@ -238,8 +233,7 @@
     <t>Forsk21</t>
   </si>
   <si>
-    <t>Antal anställda manliga bibliotekarier och dokumentalister. Personal med utbildning i biblioteks- och informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.
-</t>
+    <t>Antal anställda manliga bibliotekarier och dokumentalister. Personal med utbildning i biblioteks- och informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.</t>
   </si>
   <si>
     <t>Antal män bibliotekarie</t>
@@ -248,8 +242,7 @@
     <t>Forsk22</t>
   </si>
   <si>
-    <t>Antal anställda personer kvinnliga biblioteksassistenter. Personal med biblioteksassistentutbildning och som har en tjänst som kräver denna utbildning. Utbildningen kan antingen vara formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.
- </t>
+    <t>Antal anställda personer kvinnliga biblioteksassistenter. Personal med biblioteksassistentutbildning och som har en tjänst som kräver denna utbildning. Utbildningen kan antingen vara formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.</t>
   </si>
   <si>
     <t>Antal kvinnor biblioteksassistent</t>
@@ -258,8 +251,7 @@
     <t>Forsk23</t>
   </si>
   <si>
-    <t>Antal anställda personer manliga biblioteksassistenter. Personal med biblioteksassistentutbildning och som har en tjänst som kräver denna utbildning. Utbildningen kan antingen vara formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.
- </t>
+    <t>Antal anställda personer manliga biblioteksassistenter. Personal med biblioteksassistentutbildning och som har en tjänst som kräver denna utbildning. Utbildningen kan antingen vara formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.</t>
   </si>
   <si>
     <t>Antal män biblioteksassistent</t>
@@ -367,8 +359,7 @@
     <t>Forsk35</t>
   </si>
   <si>
-    <t>Lönekostnader för personalen. Bibliotekets driftskostnader för sin personal. Personalkostnaderna delas in i löner och kompetensutveckling. Redovisas exklusive moms i kronor. Avlönade praktikanter medräknas. Till löner räknas bibliotekets samlade direkta och indirekta personalomkostnader, inklusive semesterersättning, lagstadgade sociala avgifter, men exklusive traktamenten. Häri inräknas även personal som betalts med externa medel.
- </t>
+    <t>Lönekostnader för personalen. Bibliotekets driftskostnader för sin personal. Personalkostnaderna delas in i löner och kompetensutveckling. Redovisas exklusive moms i kronor. Avlönade praktikanter medräknas. Till löner räknas bibliotekets samlade direkta och indirekta personalomkostnader, inklusive semesterersättning, lagstadgade sociala avgifter, men exklusive traktamenten. Häri inräknas även personal som betalts med externa medel.</t>
   </si>
   <si>
     <t>Lönekostnad</t>
@@ -578,8 +569,7 @@
     <t>Forsk59</t>
   </si>
   <si>
-    <t>Bestånd kursböcker hyllmeter, en kursbok är ett verk som ingår som ordinarie litteratur i lärosätets utbildningar. Kursböckerna räknas bort från kategorierna Böcker och seriella publikationer, ingen dubbelräkning. I forskningsbiblioteksstatistiken räknas 1 hyllmeter som 40 medier.
- </t>
+    <t>Bestånd kursböcker hyllmeter, en kursbok är ett verk som ingår som ordinarie litteratur i lärosätets utbildningar. Kursböckerna räknas bort från kategorierna Böcker och seriella publikationer, ingen dubbelräkning. I forskningsbiblioteksstatistiken räknas 1 hyllmeter som 40 medier.</t>
   </si>
   <si>
     <t>Kursböcker hyllmeter</t>
@@ -594,7 +584,7 @@
     <t>Forsk61</t>
   </si>
   <si>
-    <t>Bestånd kursböcker titlar elektroniska, en kursbok är ett verk som ingår som ordinarie litteratur i lärosätets utbildningar. </t>
+    <t>Bestånd kursböcker titlar elektroniska, en kursbok är ett verk som ingår som ordinarie litteratur i lärosätets utbildningar.</t>
   </si>
   <si>
     <t>Kursböcker e-titlar</t>
@@ -603,7 +593,7 @@
     <t>Forsk62</t>
   </si>
   <si>
-    <t>Nyförvärv kursböcker titlar elektroniska, en kursbok är ett verk som ingår som ordinarie litteratur i lärosätets utbildningar. </t>
+    <t>Nyförvärv kursböcker titlar elektroniska, en kursbok är ett verk som ingår som ordinarie litteratur i lärosätets utbildningar.</t>
   </si>
   <si>
     <t>Forsk63</t>
@@ -666,7 +656,7 @@
     <t>Forsk71</t>
   </si>
   <si>
-    <t>Bestånd grafiska och kartografiska dokument i tryckt form fysiska enheter. Grafiska dokument i vilka återgivningen av bilder är det mest framträdande draget. Det bildmässiga ska således dominera över det språkliga, liksom över det kartografiska. Begreppet omfattar grafisk konst i original, reproduktioner, konsttryck, fotografier, affischer, skisser, tekniska ritningar, arkitektritningar o.d. För statistiska ändamål omfattas dokument i kodexform inte av begreppet. Redovisas tillsammans med kartografiska dokument. Kartografiska dokument är återgivningar i reducerad skala av konkreta och abstrakta fenomen som kan lokaliseras i tid och rum. Detta omfattar två- och tredimensionella kartor, glober, planritningar, topografiska modeller, reliefkartor, fotometriska kartor etc., men inte atlaser och andra kartografiska dokument i kodexform. Tekniska ritningar, arkitektritningar, dokument i mikrografisk, audio-visuell eller maskinläsbar form, räknas inte som kartografiska. </t>
+    <t>Bestånd grafiska och kartografiska dokument i tryckt form fysiska enheter. Grafiska dokument i vilka återgivningen av bilder är det mest framträdande draget. Det bildmässiga ska således dominera över det språkliga, liksom över det kartografiska. Begreppet omfattar grafisk konst i original, reproduktioner, konsttryck, fotografier, affischer, skisser, tekniska ritningar, arkitektritningar o.d. För statistiska ändamål omfattas dokument i kodexform inte av begreppet. Redovisas tillsammans med kartografiska dokument. Kartografiska dokument är återgivningar i reducerad skala av konkreta och abstrakta fenomen som kan lokaliseras i tid och rum. Detta omfattar två- och tredimensionella kartor, glober, planritningar, topografiska modeller, reliefkartor, fotometriska kartor etc., men inte atlaser och andra kartografiska dokument i kodexform. Tekniska ritningar, arkitektritningar, dokument i mikrografisk, audio-visuell eller maskinläsbar form, räknas inte som kartografiska.</t>
   </si>
   <si>
     <t>Grafisk</t>
@@ -696,7 +686,7 @@
     <t>Forsk75</t>
   </si>
   <si>
-    <t>Bestånd audiovisuella dokument fysiska enheter. Dokument som övervägande del återger ljud och/eller bild, men som för att ses och/eller höras kräver speciell utrustning. Hit hör rena ljuddokument (t.ex. CD-skivor, grammofonskivor, ljudband, ljudkassetter eller filer med digitala ljudinspelningar mp3). Hit hör också rena bilddokument (t.ex. diabilder och overhead-bilder), samt kombinerade dokument (t.ex. videoinspelningar, rörlig film med ljud). Beräkning av antalet enheter baseras på den fysiska formen för förvaring av medierna. Paket eller liknande som bildar en enhet räknas som en (1) AV-medieenhet. </t>
+    <t>Bestånd audiovisuella dokument fysiska enheter. Dokument som övervägande del återger ljud och/eller bild, men som för att ses och/eller höras kräver speciell utrustning. Hit hör rena ljuddokument (t.ex. CD-skivor, grammofonskivor, ljudband, ljudkassetter eller filer med digitala ljudinspelningar mp3). Hit hör också rena bilddokument (t.ex. diabilder och overhead-bilder), samt kombinerade dokument (t.ex. videoinspelningar, rörlig film med ljud). Beräkning av antalet enheter baseras på den fysiska formen för förvaring av medierna. Paket eller liknande som bildar en enhet räknas som en (1) AV-medieenhet.</t>
   </si>
   <si>
     <t>AV-medier</t>
@@ -705,7 +695,7 @@
     <t>Forsk76</t>
   </si>
   <si>
-    <t>Nyförvärv audiovisuella dokument fysiska enheter. Dokument som övervägande del återger ljud och/eller bild, men som för att ses och/eller höras kräver speciell utrustning. Hit hör rena ljuddokument (t.ex. CD-skivor, grammofonskivor, ljudband, ljudkassetter eller filer med digitala ljudinspelningar mp3). Hit hör också rena bilddokument (t.ex. diabilder och overhead-bilder), samt kombinerade dokument (t.ex. videoinspelningar, rörlig film med ljud). Beräkning av antalet enheter baseras på den fysiska formen för förvaring av medierna. Paket eller liknande som bildar en enhet räknas som en (1) AV-medieenhet. </t>
+    <t>Nyförvärv audiovisuella dokument fysiska enheter. Dokument som övervägande del återger ljud och/eller bild, men som för att ses och/eller höras kräver speciell utrustning. Hit hör rena ljuddokument (t.ex. CD-skivor, grammofonskivor, ljudband, ljudkassetter eller filer med digitala ljudinspelningar mp3). Hit hör också rena bilddokument (t.ex. diabilder och overhead-bilder), samt kombinerade dokument (t.ex. videoinspelningar, rörlig film med ljud). Beräkning av antalet enheter baseras på den fysiska formen för förvaring av medierna. Paket eller liknande som bildar en enhet räknas som en (1) AV-medieenhet.</t>
   </si>
   <si>
     <t>Forsk77</t>
@@ -726,7 +716,7 @@
     <t>Forsk79</t>
   </si>
   <si>
-    <t>Bestånd e-böcker antal titlar. Dokument i digital form som huvudsakligen innehåller sökbar text och som är jämförbar med en tryckt bok (monografi) och som kräver speciell teknisk utrustning för att kunna läsas. E-böcker kan överföras till användarens PC för användning eller lånas ut till användare på läsplattor. Till e-böcker räknas också exempelvis referensverk och handböcker. Konferensrapporter förs in under Seriella publikationer i elektronisk form eller Övriga digitala dokument beroende på om de är seriella eller inte. Endast de e-böcker som ingår som en del av bibliotekets samlingar exempelvis genom licensavtal räknas. De e-böcker som finns fritt tillgängliga på Internet och som görs tillgängliga genom bibliotekets försorg, i exempelvis den publika katalogen eller i länksamlingar, räknas inte. Om e-boken ingår i sk. PDA-avtal ska endast de titlar som förvärvats under året räknas till beståndet. </t>
+    <t>Bestånd e-böcker antal titlar. Dokument i digital form som huvudsakligen innehåller sökbar text och som är jämförbar med en tryckt bok (monografi) och som kräver speciell teknisk utrustning för att kunna läsas. E-böcker kan överföras till användarens PC för användning eller lånas ut till användare på läsplattor. Till e-böcker räknas också exempelvis referensverk och handböcker. Konferensrapporter förs in under Seriella publikationer i elektronisk form eller Övriga digitala dokument beroende på om de är seriella eller inte. Endast de e-böcker som ingår som en del av bibliotekets samlingar exempelvis genom licensavtal räknas. De e-böcker som finns fritt tillgängliga på Internet och som görs tillgängliga genom bibliotekets försorg, i exempelvis den publika katalogen eller i länksamlingar, räknas inte. Om e-boken ingår i sk. PDA-avtal ska endast de titlar som förvärvats under året räknas till beståndet.</t>
   </si>
   <si>
     <t>Titlar e-böcker</t>
@@ -735,7 +725,7 @@
     <t>Forsk80</t>
   </si>
   <si>
-    <t>Nyförvärv e-böcker antal titlar. Dokument i digital form som huvudsakligen innehåller sökbar text och som är jämförbar med en tryckt bok (monografi) och som kräver speciell teknisk utrustning för att kunna läsas. E-böcker kan överföras till användarens PC för användning eller lånas ut till användare på läsplattor. Till e-böcker räknas också exempelvis referensverk och handböcker. Konferensrapporter förs in under Seriella publikationer i elektronisk form eller Övriga digitala dokument beroende på om de är seriella eller inte. Endast de e-böcker som ingår som en del av bibliotekets samlingar exempelvis genom licensavtal räknas. De e-böcker som finns fritt tillgängliga på Internet och som görs tillgängliga genom bibliotekets försorg, i exempelvis den publika katalogen eller i länksamlingar, räknas inte. Om e-boken ingår i sk. PDA-avtal ska endast de titlar som förvärvats under året räknas till beståndet. </t>
+    <t>Nyförvärv e-böcker antal titlar. Dokument i digital form som huvudsakligen innehåller sökbar text och som är jämförbar med en tryckt bok (monografi) och som kräver speciell teknisk utrustning för att kunna läsas. E-böcker kan överföras till användarens PC för användning eller lånas ut till användare på läsplattor. Till e-böcker räknas också exempelvis referensverk och handböcker. Konferensrapporter förs in under Seriella publikationer i elektronisk form eller Övriga digitala dokument beroende på om de är seriella eller inte. Endast de e-böcker som ingår som en del av bibliotekets samlingar exempelvis genom licensavtal räknas. De e-böcker som finns fritt tillgängliga på Internet och som görs tillgängliga genom bibliotekets försorg, i exempelvis den publika katalogen eller i länksamlingar, räknas inte. Om e-boken ingår i sk. PDA-avtal ska endast de titlar som förvärvats under året räknas till beståndet.</t>
   </si>
   <si>
     <t>Forsk81</t>
@@ -771,7 +761,7 @@
     <t>Forsk85</t>
   </si>
   <si>
-    <t>Bestånd periodika tryckt form. Seriell publikation som utkommer mer sällan än en gång i veckan. Inkluderar tidskrifter och serier inklusive rapportserier och kongresstryck. Monografiserier inkluderas inte utan hänförs till böcker. </t>
+    <t>Bestånd periodika tryckt form. Seriell publikation som utkommer mer sällan än en gång i veckan. Inkluderar tidskrifter och serier inklusive rapportserier och kongresstryck. Monografiserier inkluderas inte utan hänförs till böcker.</t>
   </si>
   <si>
     <t>Tryckt periodika</t>
@@ -780,13 +770,13 @@
     <t>Forsk86</t>
   </si>
   <si>
-    <t>Bestånd periodika elektronisk form. Seriell publikation som utkommer mer sällan än en gång i veckan. Inkluderar tidskrifter och serier inklusive rapportserier och kongresstryck. Monografiserier inkluderas inte utan hänförs till böcker. </t>
+    <t>Bestånd periodika elektronisk form. Seriell publikation som utkommer mer sällan än en gång i veckan. Inkluderar tidskrifter och serier inklusive rapportserier och kongresstryck. Monografiserier inkluderas inte utan hänförs till böcker.</t>
   </si>
   <si>
     <t>Forsk87</t>
   </si>
   <si>
-    <t>Bestånd tidningar tryckt form. En seriell publikation av nyhetskaraktär som utkommer minst en gång i veckan. Antalet tidningar och periodika i elektronisk form avser tillgång till fulltext som biblioteket genom prenumerationsavtal eller liknande erbjuder sina användare. Seriella publikationer i elektronisk form räknas i antal löpande titlar. </t>
+    <t>Bestånd tidningar tryckt form. En seriell publikation av nyhetskaraktär som utkommer minst en gång i veckan. Antalet tidningar och periodika i elektronisk form avser tillgång till fulltext som biblioteket genom prenumerationsavtal eller liknande erbjuder sina användare. Seriella publikationer i elektronisk form räknas i antal löpande titlar.</t>
   </si>
   <si>
     <t>Tryckt tidning</t>
@@ -795,7 +785,7 @@
     <t>Forsk88</t>
   </si>
   <si>
-    <t>Bestånd tidningar elektronisk form. En seriell publikation av nyhetskaraktär som utkommer minst en gång i veckan. Antalet tidningar och periodika i elektronisk form avser tillgång till fulltext som biblioteket genom prenumerationsavtal eller liknande erbjuder sina användare. Seriella publikationer i elektronisk form räknas i antal löpande titlar. </t>
+    <t>Bestånd tidningar elektronisk form. En seriell publikation av nyhetskaraktär som utkommer minst en gång i veckan. Antalet tidningar och periodika i elektronisk form avser tillgång till fulltext som biblioteket genom prenumerationsavtal eller liknande erbjuder sina användare. Seriella publikationer i elektronisk form räknas i antal löpande titlar.</t>
   </si>
   <si>
     <t>Forsk89</t>
@@ -873,8 +863,7 @@
     <t>Forsk97</t>
   </si>
   <si>
-    <t>Lokala lån, antal initiala hemlån. Hemlån av ett dokument (i motsats till en kopia av dokumentet) till en användare för att nyttjas utanför biblioteket, antingen direkt eller genom ett annat bibliotek första gången det lånas. Initiala lån och omlån redovisas var för sig.
- </t>
+    <t>Lokala lån, antal initiala hemlån. Hemlån av ett dokument (i motsats till en kopia av dokumentet) till en användare för att nyttjas utanför biblioteket, antingen direkt eller genom ett annat bibliotek första gången det lånas. Initiala lån och omlån redovisas var för sig.</t>
   </si>
   <si>
     <t>Initiala hemlån</t>
@@ -1081,7 +1070,7 @@
     <t>Forsk127</t>
   </si>
   <si>
-    <t>Antal framtagna fulltextdokument i databaser. Ett dokument i fulltext som tagits fram (laddats ner) av en användare under en session i en fulltextdatabas eller annat digitalt dokument som ingår i bibliotekets samlingar (t.ex. kapitel ut e-böcker eller seriell publikationer). </t>
+    <t>Antal framtagna fulltextdokument i databaser. Ett dokument i fulltext som tagits fram (laddats ner) av en användare under en session i en fulltextdatabas eller annat digitalt dokument som ingår i bibliotekets samlingar (t.ex. kapitel ut e-böcker eller seriell publikationer).</t>
   </si>
   <si>
     <t>Fulltext databaser</t>
@@ -1159,7 +1148,7 @@
     <t>Forsk136</t>
   </si>
   <si>
-    <t>Antal virtuella besök av IP-besökare per år. En IP-besökare är en identifierad IP-adress, använd av en fysisk person, som hämtat sidor från bibliotekets webbplats under mätperioden. </t>
+    <t>Antal virtuella besök av IP-besökare per år. En IP-besökare är en identifierad IP-adress, använd av en fysisk person, som hämtat sidor från bibliotekets webbplats under mätperioden.</t>
   </si>
   <si>
     <t>IP-nummer</t>
@@ -1168,7 +1157,7 @@
     <t>Forsk137</t>
   </si>
   <si>
-    <t>Antal sökningar i bibliotekets OPAC. En sökning representerar i detta sammanhang en unik intellektuell fråga i en databas eller OPAC och registreras varje gång en sökfråga skickas till servern. </t>
+    <t>Antal sökningar i bibliotekets OPAC. En sökning representerar i detta sammanhang en unik intellektuell fråga i en databas eller OPAC och registreras varje gång en sökfråga skickas till servern.</t>
   </si>
   <si>
     <t>OPAC</t>
@@ -1198,7 +1187,7 @@
     <t>Forsk140</t>
   </si>
   <si>
-    <t>Antal publika datorer. Hit räknas alla datorer (terminaler) som är tillgängliga för bibliotekets besökare och som används för exempelvis sökningar i databaser och i bibliotekskataloger (bibliotekets egna och andras, lokala och i nätverk). </t>
+    <t>Antal publika datorer. Hit räknas alla datorer (terminaler) som är tillgängliga för bibliotekets besökare och som används för exempelvis sökningar i databaser och i bibliotekskataloger (bibliotekets egna och andras, lokala och i nätverk).</t>
   </si>
   <si>
     <t>Service</t>
@@ -1427,19 +1416,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* \-??\ _k_r_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0\ _k_r_-;\-* #,##0\ _k_r_-;_-* \-??\ _k_r_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* \-??\ _k_r_-;_-@_-"/>
   </numFmts>
   <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1458,28 +1445,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
+      <b val="true"/>
+      <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1487,9 +1466,16 @@
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1498,13 +1484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor rgb="FFFF99FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
+        <fgColor rgb="FFFF66CC"/>
         <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
@@ -1537,71 +1517,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1612,7 +1570,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1637,7 +1595,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF66CC"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -1654,7 +1612,7 @@
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -1688,10 +1646,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="54.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="76"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.469387755102"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="40.5051020408163"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1683673469388"/>
@@ -1699,11 +1657,11 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1719,3219 +1677,3197 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+    <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" s="7" customFormat="true" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
+    <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
+      <c r="E67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
+      <c r="E71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="s">
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="s">
+      <c r="E75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="s">
+      <c r="E78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="s">
+      <c r="E79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="s">
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="s">
+      <c r="E81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="s">
+      <c r="E82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="s">
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="s">
+      <c r="E86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="s">
+      <c r="E87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E88" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="s">
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="s">
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="s">
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="s">
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="s">
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E94" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="96" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="s">
+    <row r="96" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="97" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="s">
+    <row r="97" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
+      <c r="E97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="s">
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8" t="s">
+      <c r="E99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="s">
+      <c r="E100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
+      <c r="E101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E102" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8" t="s">
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E103" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="7" t="s">
+      <c r="E103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D104" s="0"/>
-      <c r="E104" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="7" t="s">
+      <c r="E104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D105" s="0"/>
-      <c r="E105" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="7" t="s">
+      <c r="E105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D106" s="0"/>
-      <c r="E106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="7" t="s">
+      <c r="E106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D107" s="0"/>
-      <c r="E107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="7" t="s">
+      <c r="E107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D108" s="0"/>
-      <c r="E108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="7" t="s">
+      <c r="E108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D109" s="0"/>
-      <c r="E109" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="7" t="s">
+      <c r="E109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D110" s="0"/>
-      <c r="E110" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="7" t="s">
+      <c r="E110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D111" s="0"/>
-      <c r="E111" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" s="7" t="s">
+      <c r="E111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D112" s="0"/>
-      <c r="E112" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" s="7" t="s">
+      <c r="E112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D113" s="0"/>
-      <c r="E113" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" s="7" t="s">
+      <c r="E113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D114" s="0"/>
-      <c r="E114" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="7" t="s">
+      <c r="E114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D115" s="0"/>
-      <c r="E115" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" s="7" t="s">
+      <c r="E115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D116" s="0"/>
-      <c r="E116" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="7" t="s">
+      <c r="E116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D117" s="0"/>
-      <c r="E117" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" s="7" t="s">
+      <c r="E117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D118" s="0"/>
-      <c r="E118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" s="7" t="s">
+      <c r="E118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D119" s="0"/>
-      <c r="E119" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="7" t="s">
+      <c r="E119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D120" s="0"/>
-      <c r="E120" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="7" t="s">
+      <c r="E120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D121" s="0"/>
-      <c r="E121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="7" t="s">
+      <c r="E121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D122" s="0"/>
-      <c r="E122" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" s="7" t="s">
+      <c r="E122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D123" s="0"/>
-      <c r="E123" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="7" t="s">
+      <c r="E123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D124" s="0"/>
-      <c r="E124" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" s="7" t="s">
+      <c r="E124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D125" s="0"/>
-      <c r="E125" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="7" t="s">
+      <c r="E125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E126" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="7" t="s">
+      <c r="E126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="7" t="s">
+      <c r="E127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E128" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="7" t="s">
+      <c r="E128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E129" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" s="7" t="s">
+      <c r="E129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E130" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" s="7" t="s">
+      <c r="E130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E131" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="7" t="s">
+      <c r="E131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E132" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" s="7" t="s">
+      <c r="E132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E133" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" s="7" t="s">
+      <c r="E133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E134" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" s="7" t="s">
+      <c r="E134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E135" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" s="7" t="s">
+      <c r="E135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E136" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" s="7" t="s">
+      <c r="E136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E137" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137" s="7" t="s">
+      <c r="E137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E138" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" s="7" t="s">
+      <c r="E138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E139" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F139" s="7" t="s">
+      <c r="E139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E140" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="7" t="s">
+      <c r="E140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E141" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F141" s="7" t="s">
+      <c r="E141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E142" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" s="7" t="s">
+      <c r="E142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E143" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F143" s="7" t="s">
+      <c r="E143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E144" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" s="7" t="s">
+      <c r="E144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E145" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145" s="7" t="s">
+      <c r="E145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E146" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F146" s="7" t="s">
+      <c r="E146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E147" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" s="7" t="s">
+      <c r="E147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E148" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" s="7" t="s">
+      <c r="E148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E149" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F149" s="7" t="s">
+      <c r="E149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E150" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150" s="7" t="s">
+      <c r="E150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E151" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F151" s="7" t="s">
+      <c r="E151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E152" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="F152" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E153" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" s="7" t="s">
+      <c r="E153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E154" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F154" s="7" t="s">
+      <c r="E154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F155" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C156" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E156" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F156" s="7" t="s">
+      <c r="F156" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E157" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="F157" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E158" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" s="7" t="s">
+      <c r="E158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E159" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F159" s="7" t="s">
+      <c r="E159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E160" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="F160" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E161" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" s="7" t="s">
+      <c r="E161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D162" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E162" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" s="7" t="s">
+      <c r="E162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E163" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="F163" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C164" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="E164" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="F164" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/forsk_termer.xlsx
+++ b/data/forsk_termer.xlsx
@@ -110,7 +110,7 @@
     <t>Forsk8</t>
   </si>
   <si>
-    <t>Totalt antal årsverken. Antalet årverken delas upp på kvinnor respektive män indelat på fyra olika kategorierer av tjänster. Årsverke motsvarar antal heltidsanställda (till exempel motsvarar 2 personer som arbetar halvtid 1 årsverke eller två personer som arbetar 75 procent av heltidstjänst motsvarar 1,5 årsverke). En heltidsanställning motsvaras vanligen av att en person arbetar 40 timmar per vecka, vilket motsvaras av 2080 timmar per år (från 2080 borträknas semester och ledigheter i samband med ”röda dagar”, återstående är då 1700-1800 timmar vid heltidsanställning). Redovisningen av årsverken avser den personal som förutsatts enligt budgeten för forskningsbiblioteksverksamheten. Uppgift om antal årsverken kan anges med flera decimaler. Respektive anställd räknas till den personalkategori som de är anställda som, inte nödvändigtvis utbildade till. </t>
+    <t>Totalt antal årsverken. Antalet årverken delas upp på kvinnor respektive män indelat på fyra olika kategorierer av tjänster. Årsverke motsvarar antal heltidsanställda (till exempel motsvarar 2 personer som arbetar halvtid 1 årsverke eller två personer som arbetar 75 procent av heltidstjänst motsvarar 1,5 årsverke). En heltidsanställning motsvaras vanligen av att en person arbetar 40 timmar per vecka, vilket motsvaras av 2080 timmar per år (från 2080 borträknas semester och ledigheter i samband med ”röda dagar”, återstående är då 1700-1800 timmar vid heltidsanställning). Redovisningen av årsverken avser den personal som förutsatts enligt budgeten för forskningsbiblioteksverksamheten. Uppgift om antal årsverken kan anges med flera decimaler. Respektive anställd räknas till den personalkategori som de är anställda som, inte nödvändigtvis utbildade till.</t>
   </si>
   <si>
     <t>Personal</t>
@@ -590,7 +590,7 @@
     <t>Forsk61</t>
   </si>
   <si>
-    <t>Bestånd kursböcker titlar elektroniska, en kursbok är ett verk som ingår som ordinarie litteratur i lärosätets utbildningar. </t>
+    <t>Bestånd kursböcker titlar elektroniska, en kursbok är ett verk som ingår som ordinarie litteratur i lärosätets utbildningar.</t>
   </si>
   <si>
     <t>Kursböcker e-titlar</t>
@@ -599,7 +599,7 @@
     <t>Forsk62</t>
   </si>
   <si>
-    <t>Nyförvärv kursböcker titlar elektroniska, en kursbok är ett verk som ingår som ordinarie litteratur i lärosätets utbildningar. </t>
+    <t>Nyförvärv kursböcker titlar elektroniska, en kursbok är ett verk som ingår som ordinarie litteratur i lärosätets utbildningar.</t>
   </si>
   <si>
     <t>Forsk63</t>
@@ -662,7 +662,7 @@
     <t>Forsk71</t>
   </si>
   <si>
-    <t>Bestånd grafiska och kartografiska dokument i tryckt form fysiska enheter. Grafiska dokument i vilka återgivningen av bilder är det mest framträdande draget. Det bildmässiga ska således dominera över det språkliga, liksom över det kartografiska. Begreppet omfattar grafisk konst i original, reproduktioner, konsttryck, fotografier, affischer, skisser, tekniska ritningar, arkitektritningar o.d. För statistiska ändamål omfattas dokument i kodexform inte av begreppet. Redovisas tillsammans med kartografiska dokument. Kartografiska dokument är återgivningar i reducerad skala av konkreta och abstrakta fenomen som kan lokaliseras i tid och rum. Detta omfattar två- och tredimensionella kartor, glober, planritningar, topografiska modeller, reliefkartor, fotometriska kartor etc., men inte atlaser och andra kartografiska dokument i kodexform. Tekniska ritningar, arkitektritningar, dokument i mikrografisk, audio-visuell eller maskinläsbar form, räknas inte som kartografiska. </t>
+    <t>Bestånd grafiska och kartografiska dokument i tryckt form fysiska enheter. Grafiska dokument i vilka återgivningen av bilder är det mest framträdande draget. Det bildmässiga ska således dominera över det språkliga, liksom över det kartografiska. Begreppet omfattar grafisk konst i original, reproduktioner, konsttryck, fotografier, affischer, skisser, tekniska ritningar, arkitektritningar o.d. För statistiska ändamål omfattas dokument i kodexform inte av begreppet. Redovisas tillsammans med kartografiska dokument. Kartografiska dokument är återgivningar i reducerad skala av konkreta och abstrakta fenomen som kan lokaliseras i tid och rum. Detta omfattar två- och tredimensionella kartor, glober, planritningar, topografiska modeller, reliefkartor, fotometriska kartor etc., men inte atlaser och andra kartografiska dokument i kodexform. Tekniska ritningar, arkitektritningar, dokument i mikrografisk, audio-visuell eller maskinläsbar form, räknas inte som kartografiska.</t>
   </si>
   <si>
     <t>Grafisk</t>
@@ -692,7 +692,7 @@
     <t>Forsk75</t>
   </si>
   <si>
-    <t>Bestånd audiovisuella dokument fysiska enheter. Dokument som övervägande del återger ljud och/eller bild, men som för att ses och/eller höras kräver speciell utrustning. Hit hör rena ljuddokument (t.ex. CD-skivor, grammofonskivor, ljudband, ljudkassetter eller filer med digitala ljudinspelningar mp3). Hit hör också rena bilddokument (t.ex. diabilder och overhead-bilder), samt kombinerade dokument (t.ex. videoinspelningar, rörlig film med ljud). Beräkning av antalet enheter baseras på den fysiska formen för förvaring av medierna. Paket eller liknande som bildar en enhet räknas som en (1) AV-medieenhet. </t>
+    <t>Bestånd audiovisuella dokument fysiska enheter. Dokument som övervägande del återger ljud och/eller bild, men som för att ses och/eller höras kräver speciell utrustning. Hit hör rena ljuddokument (t.ex. CD-skivor, grammofonskivor, ljudband, ljudkassetter eller filer med digitala ljudinspelningar mp3). Hit hör också rena bilddokument (t.ex. diabilder och overhead-bilder), samt kombinerade dokument (t.ex. videoinspelningar, rörlig film med ljud). Beräkning av antalet enheter baseras på den fysiska formen för förvaring av medierna. Paket eller liknande som bildar en enhet räknas som en (1) AV-medieenhet.</t>
   </si>
   <si>
     <t>AV-medier</t>
@@ -701,7 +701,7 @@
     <t>Forsk76</t>
   </si>
   <si>
-    <t>Nyförvärv audiovisuella dokument fysiska enheter. Dokument som övervägande del återger ljud och/eller bild, men som för att ses och/eller höras kräver speciell utrustning. Hit hör rena ljuddokument (t.ex. CD-skivor, grammofonskivor, ljudband, ljudkassetter eller filer med digitala ljudinspelningar mp3). Hit hör också rena bilddokument (t.ex. diabilder och overhead-bilder), samt kombinerade dokument (t.ex. videoinspelningar, rörlig film med ljud). Beräkning av antalet enheter baseras på den fysiska formen för förvaring av medierna. Paket eller liknande som bildar en enhet räknas som en (1) AV-medieenhet. </t>
+    <t>Nyförvärv audiovisuella dokument fysiska enheter. Dokument som övervägande del återger ljud och/eller bild, men som för att ses och/eller höras kräver speciell utrustning. Hit hör rena ljuddokument (t.ex. CD-skivor, grammofonskivor, ljudband, ljudkassetter eller filer med digitala ljudinspelningar mp3). Hit hör också rena bilddokument (t.ex. diabilder och overhead-bilder), samt kombinerade dokument (t.ex. videoinspelningar, rörlig film med ljud). Beräkning av antalet enheter baseras på den fysiska formen för förvaring av medierna. Paket eller liknande som bildar en enhet räknas som en (1) AV-medieenhet.</t>
   </si>
   <si>
     <t>Forsk77</t>
@@ -722,7 +722,7 @@
     <t>Forsk79</t>
   </si>
   <si>
-    <t>Bestånd e-böcker antal titlar. Dokument i digital form som huvudsakligen innehåller sökbar text och som är jämförbar med en tryckt bok (monografi) och som kräver speciell teknisk utrustning för att kunna läsas. E-böcker kan överföras till användarens PC för användning eller lånas ut till användare på läsplattor. Till e-böcker räknas också exempelvis referensverk och handböcker. Konferensrapporter förs in under Seriella publikationer i elektronisk form eller Övriga digitala dokument beroende på om de är seriella eller inte. Endast de e-böcker som ingår som en del av bibliotekets samlingar exempelvis genom licensavtal räknas. De e-böcker som finns fritt tillgängliga på Internet och som görs tillgängliga genom bibliotekets försorg, i exempelvis den publika katalogen eller i länksamlingar, räknas inte. Om e-boken ingår i sk. PDA-avtal ska endast de titlar som förvärvats under året räknas till beståndet. </t>
+    <t>Bestånd e-böcker antal titlar. Dokument i digital form som huvudsakligen innehåller sökbar text och som är jämförbar med en tryckt bok (monografi) och som kräver speciell teknisk utrustning för att kunna läsas. E-böcker kan överföras till användarens PC för användning eller lånas ut till användare på läsplattor. Till e-böcker räknas också exempelvis referensverk och handböcker. Konferensrapporter förs in under Seriella publikationer i elektronisk form eller Övriga digitala dokument beroende på om de är seriella eller inte. Endast de e-böcker som ingår som en del av bibliotekets samlingar exempelvis genom licensavtal räknas. De e-böcker som finns fritt tillgängliga på Internet och som görs tillgängliga genom bibliotekets försorg, i exempelvis den publika katalogen eller i länksamlingar, räknas inte. Om e-boken ingår i sk. PDA-avtal ska endast de titlar som förvärvats under året räknas till beståndet.</t>
   </si>
   <si>
     <t>Titlar e-böcker</t>
@@ -731,7 +731,7 @@
     <t>Forsk80</t>
   </si>
   <si>
-    <t>Nyförvärv e-böcker antal titlar. Dokument i digital form som huvudsakligen innehåller sökbar text och som är jämförbar med en tryckt bok (monografi) och som kräver speciell teknisk utrustning för att kunna läsas. E-böcker kan överföras till användarens PC för användning eller lånas ut till användare på läsplattor. Till e-böcker räknas också exempelvis referensverk och handböcker. Konferensrapporter förs in under Seriella publikationer i elektronisk form eller Övriga digitala dokument beroende på om de är seriella eller inte. Endast de e-böcker som ingår som en del av bibliotekets samlingar exempelvis genom licensavtal räknas. De e-böcker som finns fritt tillgängliga på Internet och som görs tillgängliga genom bibliotekets försorg, i exempelvis den publika katalogen eller i länksamlingar, räknas inte. Om e-boken ingår i sk. PDA-avtal ska endast de titlar som förvärvats under året räknas till beståndet. </t>
+    <t>Nyförvärv e-böcker antal titlar. Dokument i digital form som huvudsakligen innehåller sökbar text och som är jämförbar med en tryckt bok (monografi) och som kräver speciell teknisk utrustning för att kunna läsas. E-böcker kan överföras till användarens PC för användning eller lånas ut till användare på läsplattor. Till e-böcker räknas också exempelvis referensverk och handböcker. Konferensrapporter förs in under Seriella publikationer i elektronisk form eller Övriga digitala dokument beroende på om de är seriella eller inte. Endast de e-böcker som ingår som en del av bibliotekets samlingar exempelvis genom licensavtal räknas. De e-böcker som finns fritt tillgängliga på Internet och som görs tillgängliga genom bibliotekets försorg, i exempelvis den publika katalogen eller i länksamlingar, räknas inte. Om e-boken ingår i sk. PDA-avtal ska endast de titlar som förvärvats under året räknas till beståndet.</t>
   </si>
   <si>
     <t>Forsk81</t>
@@ -767,7 +767,7 @@
     <t>Forsk85</t>
   </si>
   <si>
-    <t>Bestånd periodika tryckt form. Seriell publikation som utkommer mer sällan än en gång i veckan. Inkluderar tidskrifter och serier inklusive rapportserier och kongresstryck. Monografiserier inkluderas inte utan hänförs till böcker. </t>
+    <t>Bestånd periodika tryckt form. Seriell publikation som utkommer mer sällan än en gång i veckan. Inkluderar tidskrifter och serier inklusive rapportserier och kongresstryck. Monografiserier inkluderas inte utan hänförs till böcker.</t>
   </si>
   <si>
     <t>Tryckt periodika</t>
@@ -776,13 +776,13 @@
     <t>Forsk86</t>
   </si>
   <si>
-    <t>Bestånd periodika elektronisk form. Seriell publikation som utkommer mer sällan än en gång i veckan. Inkluderar tidskrifter och serier inklusive rapportserier och kongresstryck. Monografiserier inkluderas inte utan hänförs till böcker. </t>
+    <t>Bestånd periodika elektronisk form. Seriell publikation som utkommer mer sällan än en gång i veckan. Inkluderar tidskrifter och serier inklusive rapportserier och kongresstryck. Monografiserier inkluderas inte utan hänförs till böcker.</t>
   </si>
   <si>
     <t>Forsk87</t>
   </si>
   <si>
-    <t>Bestånd tidningar tryckt form. En seriell publikation av nyhetskaraktär som utkommer minst en gång i veckan. Antalet tidningar och periodika i elektronisk form avser tillgång till fulltext som biblioteket genom prenumerationsavtal eller liknande erbjuder sina användare. Seriella publikationer i elektronisk form räknas i antal löpande titlar. </t>
+    <t>Bestånd tidningar tryckt form. En seriell publikation av nyhetskaraktär som utkommer minst en gång i veckan. Antalet tidningar och periodika i elektronisk form avser tillgång till fulltext som biblioteket genom prenumerationsavtal eller liknande erbjuder sina användare. Seriella publikationer i elektronisk form räknas i antal löpande titlar.</t>
   </si>
   <si>
     <t>Tryckt tidning</t>
@@ -791,7 +791,7 @@
     <t>Forsk88</t>
   </si>
   <si>
-    <t>Bestånd tidningar elektronisk form. En seriell publikation av nyhetskaraktär som utkommer minst en gång i veckan. Antalet tidningar och periodika i elektronisk form avser tillgång till fulltext som biblioteket genom prenumerationsavtal eller liknande erbjuder sina användare. Seriella publikationer i elektronisk form räknas i antal löpande titlar. </t>
+    <t>Bestånd tidningar elektronisk form. En seriell publikation av nyhetskaraktär som utkommer minst en gång i veckan. Antalet tidningar och periodika i elektronisk form avser tillgång till fulltext som biblioteket genom prenumerationsavtal eller liknande erbjuder sina användare. Seriella publikationer i elektronisk form räknas i antal löpande titlar.</t>
   </si>
   <si>
     <t>Forsk89</t>
@@ -1133,7 +1133,7 @@
     <t>Forsk127</t>
   </si>
   <si>
-    <t>Antal framtagna fulltextdokument i databaser. Ett dokument i fulltext som tagits fram (laddats ner) av en användare under en session i en fulltextdatabas eller annat digitalt dokument som ingår i bibliotekets samlingar (t.ex. kapitel ut e-böcker eller seriell publikationer). </t>
+    <t>Antal framtagna fulltextdokument i databaser. Ett dokument i fulltext som tagits fram (laddats ner) av en användare under en session i en fulltextdatabas eller annat digitalt dokument som ingår i bibliotekets samlingar (t.ex. kapitel ut e-böcker eller seriell publikationer).</t>
   </si>
   <si>
     <t>Fulltext databaser</t>
@@ -1211,7 +1211,7 @@
     <t>Forsk136</t>
   </si>
   <si>
-    <t>Antal virtuella besök av IP-besökare per år. En IP-besökare är en identifierad IP-adress, använd av en fysisk person, som hämtat sidor från bibliotekets webbplats under mätperioden. </t>
+    <t>Antal virtuella besök av IP-besökare per år. En IP-besökare är en identifierad IP-adress, använd av en fysisk person, som hämtat sidor från bibliotekets webbplats under mätperioden.</t>
   </si>
   <si>
     <t>IP-nummer</t>
@@ -1220,7 +1220,7 @@
     <t>Forsk137</t>
   </si>
   <si>
-    <t>Antal sökningar i bibliotekets OPAC. En sökning representerar i detta sammanhang en unik intellektuell fråga i en databas eller OPAC och registreras varje gång en sökfråga skickas till servern. </t>
+    <t>Antal sökningar i bibliotekets OPAC. En sökning representerar i detta sammanhang en unik intellektuell fråga i en databas eller OPAC och registreras varje gång en sökfråga skickas till servern.</t>
   </si>
   <si>
     <t>OPAC</t>
@@ -1250,7 +1250,7 @@
     <t>Forsk140</t>
   </si>
   <si>
-    <t>Antal publika datorer. Hit räknas alla datorer (terminaler) som är tillgängliga för bibliotekets besökare och som används för exempelvis sökningar i databaser och i bibliotekskataloger (bibliotekets egna och andras, lokala och i nätverk). </t>
+    <t>Antal publika datorer. Hit räknas alla datorer (terminaler) som är tillgängliga för bibliotekets besökare och som används för exempelvis sökningar i databaser och i bibliotekskataloger (bibliotekets egna och andras, lokala och i nätverk).</t>
   </si>
   <si>
     <t>Service</t>
@@ -1482,7 +1482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1502,6 +1502,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1563,11 +1569,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1655,15 +1661,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.1428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -1986,7 +1992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -2066,7 +2072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>90</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>93</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>96</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>101</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>104</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>106</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>109</v>
       </c>
@@ -2346,7 +2352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>115</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>118</v>
       </c>
@@ -2406,7 +2412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>121</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>124</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>127</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>130</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>133</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>136</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>139</v>
       </c>
@@ -2546,7 +2552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>142</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>145</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>148</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>151</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>155</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>158</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>162</v>
       </c>
@@ -2686,7 +2692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>165</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>168</v>
       </c>
@@ -2726,7 +2732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>170</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>173</v>
       </c>
@@ -2766,7 +2772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>175</v>
       </c>
@@ -2786,7 +2792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>178</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -2826,7 +2832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>183</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>185</v>
       </c>
@@ -2866,7 +2872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>188</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>190</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>193</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>195</v>
       </c>
@@ -2946,7 +2952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>198</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>200</v>
       </c>
@@ -2986,7 +2992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>203</v>
       </c>
@@ -3006,7 +3012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>205</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>208</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>210</v>
       </c>
@@ -3066,7 +3072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>212</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>214</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>217</v>
       </c>
@@ -3126,7 +3132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>219</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>222</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>224</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>227</v>
       </c>
@@ -3206,7 +3212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>229</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>232</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>234</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>237</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>239</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>242</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>244</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>247</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>249</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>252</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>254</v>
       </c>
@@ -3426,7 +3432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>257</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>259</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>262</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>265</v>
       </c>
@@ -3506,7 +3512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>268</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>271</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>274</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>277</v>
       </c>
@@ -3586,7 +3592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>280</v>
       </c>
@@ -3606,7 +3612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>283</v>
       </c>
@@ -3626,7 +3632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>286</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>289</v>
       </c>
@@ -3666,7 +3672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>292</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
         <v>295</v>
       </c>
@@ -3706,7 +3712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
         <v>299</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>302</v>
       </c>
@@ -3746,7 +3752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
         <v>305</v>
       </c>
@@ -3766,7 +3772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>308</v>
       </c>
@@ -3786,7 +3792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
         <v>311</v>
       </c>
@@ -3806,7 +3812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
         <v>314</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>317</v>
       </c>
@@ -3846,7 +3852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
         <v>320</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
         <v>323</v>
       </c>
@@ -3886,7 +3892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
         <v>326</v>
       </c>
@@ -3906,7 +3912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
         <v>329</v>
       </c>
@@ -3926,7 +3932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
         <v>332</v>
       </c>
@@ -3946,7 +3952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
         <v>335</v>
       </c>
@@ -3966,7 +3972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
         <v>338</v>
       </c>
@@ -3986,7 +3992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
         <v>341</v>
       </c>
@@ -4006,7 +4012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
         <v>344</v>
       </c>
@@ -4026,7 +4032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
         <v>347</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
         <v>349</v>
       </c>
@@ -4066,7 +4072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
         <v>352</v>
       </c>
@@ -4086,7 +4092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
         <v>355</v>
       </c>
@@ -4106,7 +4112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
         <v>357</v>
       </c>
@@ -4126,7 +4132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
         <v>360</v>
       </c>
@@ -4146,7 +4152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
         <v>363</v>
       </c>
@@ -4166,7 +4172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
         <v>365</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
         <v>368</v>
       </c>
@@ -4206,7 +4212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
         <v>371</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
         <v>374</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
         <v>377</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
         <v>380</v>
       </c>
@@ -4286,7 +4292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
         <v>383</v>
       </c>
@@ -4306,7 +4312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
         <v>385</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>387</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
         <v>391</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>394</v>
       </c>
@@ -4386,7 +4392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>397</v>
       </c>
@@ -4406,7 +4412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
         <v>400</v>
       </c>
@@ -4426,7 +4432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>403</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
         <v>406</v>
       </c>
@@ -4466,7 +4472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>410</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
         <v>414</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>417</v>
       </c>
@@ -4526,7 +4532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>420</v>
       </c>
@@ -4546,7 +4552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>423</v>
       </c>
@@ -4566,7 +4572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
         <v>426</v>
       </c>
@@ -4586,7 +4592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
         <v>429</v>
       </c>
@@ -4606,7 +4612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>432</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>435</v>
       </c>
@@ -4646,7 +4652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
         <v>438</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
         <v>441</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
         <v>444</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
         <v>447</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
         <v>451</v>
       </c>
@@ -4746,7 +4752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
         <v>454</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
         <v>458</v>
       </c>
@@ -4786,7 +4792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
         <v>461</v>
       </c>
@@ -4806,7 +4812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
         <v>464</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
         <v>467</v>
       </c>
@@ -4846,7 +4852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
         <v>470</v>
       </c>
@@ -4866,7 +4872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
         <v>474</v>
       </c>
@@ -4886,7 +4892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
         <v>477</v>
       </c>
@@ -4906,7 +4912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
         <v>480</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
         <v>483</v>
       </c>
